--- a/biology/Zoologie/Dixa/Dixa.xlsx
+++ b/biology/Zoologie/Dixa/Dixa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriopterites
 Dixa est un genre d'insecte diptères de la famille des Dixidae.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dixa a été créé en 1818 par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845)[1],[2]. Ce genre appartient à la famille des Dixidae[3].
-Répartition
-Le genre a une répartition cosmopolite[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dixa a été créé en 1818 par l'entomologiste allemand Johann Wilhelm Meigen (1764-1845),. Ce genre appartient à la famille des Dixidae.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon , ces moustiques pondent leurs œufs dans des eaux stagnantes ou lentes riches en végétation. Les œufs sont pondus en rangées plus ou moins régulières et sont entourés d'une masse gélatineuse que la femelle soutient avec ses pattes postérieures lors de la ponte. Après la pose, la masse s'enfonce dans l'eau.
-Les larves vivent dans et sur l'eau. Ils adoptent une posture en forme de « V » lorsqu'ils sont juste hors de l'eau sur une plante aquatique ou des feuilles flottantes. Ils se déplacent à la surface de l'eau avec un mouvement latéral typique de flexion et d'étirement. Le stade nymphe ne dure que quelques heures à quatre jours. Les adultes peuvent être vus "danser" à la tombée de la nuit[5],[6],[7].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a une répartition cosmopolite.
 </t>
         </is>
       </c>
@@ -574,10 +591,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon , ces moustiques pondent leurs œufs dans des eaux stagnantes ou lentes riches en végétation. Les œufs sont pondus en rangées plus ou moins régulières et sont entourés d'une masse gélatineuse que la femelle soutient avec ses pattes postérieures lors de la ponte. Après la pose, la masse s'enfonce dans l'eau.
+Les larves vivent dans et sur l'eau. Ils adoptent une posture en forme de « V » lorsqu'ils sont juste hors de l'eau sur une plante aquatique ou des feuilles flottantes. Ils se déplacent à la surface de l'eau avec un mouvement latéral typique de flexion et d'étirement. Le stade nymphe ne dure que quelques heures à quatre jours. Les adultes peuvent être vus "danser" à la tombée de la nuit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dixa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dixa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces connues sont :
 D. adleri Peters, 1987
@@ -621,35 +674,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dixa</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Dixa</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023, le nombre des espèces fossiles référencées est de deux[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre des espèces fossiles référencées est de deux :
 †Dixa minuta Meunier, 1906
-†Dixa tertiaria Meunier, 1915[2]</t>
+†Dixa tertiaria Meunier, 1915</t>
         </is>
       </c>
     </row>
